--- a/controllers/sprinter/OldResults/Results.xlsx
+++ b/controllers/sprinter/OldResults/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antons\Desktop\Other\PersonalFiles\Masters\AI Programming\Project\humanoid_sprint_project\controllers\sprinter\OldResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB09E7A-A7C2-4837-A4C8-F7508B3958A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4355186B-838F-45EB-AF5E-00E4CC6A0FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Generation</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>BestPerformance_3</t>
+  </si>
+  <si>
+    <t>SLOW_GENOME</t>
+  </si>
+  <si>
+    <t>WALK_IT_GENOME</t>
+  </si>
+  <si>
+    <t>LARGER_STEPS_GENOME</t>
+  </si>
+  <si>
+    <t>TIPPEL_TAPPEL_GENOME</t>
+  </si>
+  <si>
+    <t>RUN_GENOME</t>
   </si>
 </sst>
 </file>
@@ -115,6 +130,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -152,7 +192,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$1</c:f>
@@ -497,13 +537,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C0F-473F-B361-55BB378473CC}"/>
+              <c16:uniqueId val="{00000001-29EB-451A-A58C-BB475AB29DFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
@@ -848,13 +888,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9C0F-473F-B361-55BB378473CC}"/>
+              <c16:uniqueId val="{00000002-29EB-451A-A58C-BB475AB29DFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$1</c:f>
@@ -1199,13 +1239,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9C0F-473F-B361-55BB378473CC}"/>
+              <c16:uniqueId val="{00000003-29EB-451A-A58C-BB475AB29DFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
@@ -1550,13 +1590,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9C0F-473F-B361-55BB378473CC}"/>
+              <c16:uniqueId val="{00000004-29EB-451A-A58C-BB475AB29DFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$F$1</c:f>
@@ -1901,13 +1941,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9C0F-473F-B361-55BB378473CC}"/>
+              <c16:uniqueId val="{00000005-29EB-451A-A58C-BB475AB29DFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$G$1</c:f>
@@ -2254,7 +2294,1772 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9C0F-473F-B361-55BB378473CC}"/>
+              <c16:uniqueId val="{00000006-29EB-451A-A58C-BB475AB29DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SLOW_GENOME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84942751190200005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-29EB-451A-A58C-BB475AB29DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WALK_IT_GENOME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.68948226615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-29EB-451A-A58C-BB475AB29DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LARGER_STEPS_GENOME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.97469959044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-29EB-451A-A58C-BB475AB29DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TIPPEL_TAPPEL_GENOME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8820090496199999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-29EB-451A-A58C-BB475AB29DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUN_GENOME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9428732121500001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-29EB-451A-A58C-BB475AB29DFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2267,11 +4072,386 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="782568783"/>
-        <c:axId val="782570447"/>
+        <c:axId val="1090236703"/>
+        <c:axId val="1090232959"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Generation</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-29EB-451A-A58C-BB475AB29DFC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="782568783"/>
+        <c:axId val="1090236703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,7 +4494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="782570447"/>
+        <c:crossAx val="1090232959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2322,7 +4502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="782570447"/>
+        <c:axId val="1090232959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2373,7 +4553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="782568783"/>
+        <c:crossAx val="1090236703"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3020,23 +5200,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>112057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFD1697-0EE9-4E61-B255-F34D88BA2C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5CDC1A1-7244-44EC-BE0C-06DD50AF74F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,15 +5500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="A1:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3350,8 +5530,23 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3373,8 +5568,23 @@
       <c r="G2">
         <v>5.5324716757300001</v>
       </c>
+      <c r="H2">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I2">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J2">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K2">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L2">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3396,8 +5606,23 @@
       <c r="G3">
         <v>5.5324716757300001</v>
       </c>
+      <c r="H3">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I3">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J3">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K3">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L3">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3419,8 +5644,23 @@
       <c r="G4">
         <v>6.5459170982000003</v>
       </c>
+      <c r="H4">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I4">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J4">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K4">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L4">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3442,8 +5682,23 @@
       <c r="G5">
         <v>6.7579775778400002</v>
       </c>
+      <c r="H5">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I5">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J5">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K5">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L5">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3465,8 +5720,23 @@
       <c r="G6">
         <v>6.7770044072499998</v>
       </c>
+      <c r="H6">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I6">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J6">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K6">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L6">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3488,8 +5758,23 @@
       <c r="G7">
         <v>6.7770044072499998</v>
       </c>
+      <c r="H7">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I7">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J7">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K7">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L7">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3511,8 +5796,23 @@
       <c r="G8">
         <v>6.8183904130500004</v>
       </c>
+      <c r="H8">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I8">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J8">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K8">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L8">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3534,8 +5834,23 @@
       <c r="G9">
         <v>6.8183904130500004</v>
       </c>
+      <c r="H9">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I9">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J9">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K9">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L9">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3557,8 +5872,23 @@
       <c r="G10">
         <v>6.85772655325</v>
       </c>
+      <c r="H10">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I10">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J10">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K10">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L10">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3580,8 +5910,23 @@
       <c r="G11">
         <v>6.85772655325</v>
       </c>
+      <c r="H11">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I11">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J11">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K11">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L11">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3603,8 +5948,23 @@
       <c r="G12">
         <v>6.85772655325</v>
       </c>
+      <c r="H12">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I12">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J12">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K12">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L12">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3626,8 +5986,23 @@
       <c r="G13">
         <v>6.85772655325</v>
       </c>
+      <c r="H13">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I13">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J13">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K13">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L13">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3649,8 +6024,23 @@
       <c r="G14">
         <v>6.85772655325</v>
       </c>
+      <c r="H14">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I14">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J14">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K14">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L14">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3672,8 +6062,23 @@
       <c r="G15">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H15">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I15">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J15">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K15">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L15">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3695,8 +6100,23 @@
       <c r="G16">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H16">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I16">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J16">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K16">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L16">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3718,8 +6138,23 @@
       <c r="G17">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H17">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I17">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J17">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K17">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L17">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3741,8 +6176,23 @@
       <c r="G18">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H18">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I18">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J18">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K18">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L18">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3764,8 +6214,23 @@
       <c r="G19">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H19">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I19">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J19">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K19">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L19">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3787,8 +6252,23 @@
       <c r="G20">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H20">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I20">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J20">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K20">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L20">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3810,8 +6290,23 @@
       <c r="G21">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H21">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I21">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J21">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K21">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L21">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3833,8 +6328,23 @@
       <c r="G22">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H22">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I22">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J22">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K22">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L22">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3856,8 +6366,23 @@
       <c r="G23">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H23">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I23">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J23">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K23">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L23">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3879,8 +6404,23 @@
       <c r="G24">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H24">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I24">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J24">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K24">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L24">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3902,8 +6442,23 @@
       <c r="G25">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H25">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I25">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J25">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K25">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L25">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3925,8 +6480,23 @@
       <c r="G26">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H26">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I26">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J26">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K26">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L26">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3948,8 +6518,23 @@
       <c r="G27">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H27">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I27">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J27">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K27">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L27">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3971,8 +6556,23 @@
       <c r="G28">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H28">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I28">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J28">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K28">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L28">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3994,8 +6594,23 @@
       <c r="G29">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H29">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I29">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J29">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K29">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L29">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4017,8 +6632,23 @@
       <c r="G30">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H30">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I30">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J30">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K30">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L30">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4040,8 +6670,23 @@
       <c r="G31">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H31">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I31">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J31">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K31">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L31">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4063,8 +6708,23 @@
       <c r="G32">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H32">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I32">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J32">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K32">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L32">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4086,8 +6746,23 @@
       <c r="G33">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H33">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I33">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J33">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K33">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L33">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4109,8 +6784,23 @@
       <c r="G34">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H34">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I34">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J34">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K34">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L34">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4132,8 +6822,23 @@
       <c r="G35">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H35">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I35">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J35">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K35">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L35">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4155,8 +6860,23 @@
       <c r="G36">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H36">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I36">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J36">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K36">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L36">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4178,8 +6898,23 @@
       <c r="G37">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H37">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I37">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J37">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K37">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L37">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4201,8 +6936,23 @@
       <c r="G38">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H38">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I38">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J38">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K38">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L38">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4224,8 +6974,23 @@
       <c r="G39">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H39">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I39">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J39">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K39">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L39">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4247,8 +7012,23 @@
       <c r="G40">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H40">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I40">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J40">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K40">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L40">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4270,8 +7050,23 @@
       <c r="G41">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H41">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I41">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J41">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K41">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L41">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4293,8 +7088,23 @@
       <c r="G42">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H42">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I42">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J42">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K42">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L42">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4316,8 +7126,23 @@
       <c r="G43">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H43">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I43">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J43">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K43">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L43">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4339,8 +7164,23 @@
       <c r="G44">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H44">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I44">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J44">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K44">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L44">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4362,8 +7202,23 @@
       <c r="G45">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H45">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I45">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J45">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K45">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L45">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4385,8 +7240,23 @@
       <c r="G46">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H46">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I46">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J46">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K46">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L46">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4408,8 +7278,23 @@
       <c r="G47">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H47">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I47">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J47">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K47">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L47">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4431,8 +7316,23 @@
       <c r="G48">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H48">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I48">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J48">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K48">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L48">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4454,8 +7354,23 @@
       <c r="G49">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H49">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I49">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J49">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K49">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L49">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4477,8 +7392,23 @@
       <c r="G50">
         <v>6.8647018719200004</v>
       </c>
+      <c r="H50">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I50">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J50">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K50">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L50">
+        <v>1.9428732121500001</v>
+      </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4499,6 +7429,21 @@
       </c>
       <c r="G51">
         <v>6.8647018719200004</v>
+      </c>
+      <c r="H51">
+        <v>0.84942751190200005</v>
+      </c>
+      <c r="I51">
+        <v>1.68948226615</v>
+      </c>
+      <c r="J51">
+        <v>1.97469959044</v>
+      </c>
+      <c r="K51">
+        <v>1.8820090496199999</v>
+      </c>
+      <c r="L51">
+        <v>1.9428732121500001</v>
       </c>
     </row>
   </sheetData>
